--- a/src/views/IngresarFisio/templates/plantilla.xlsx
+++ b/src/views/IngresarFisio/templates/plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmanc\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos Github\Vitalink-FrontEnd\src\views\IngresarFisio\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{835B635B-6A0D-4BBE-BE85-F84E1224E0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B24B09A-41A3-446F-AC30-4BF23CB7A685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3BC6A7CB-5794-4664-AC29-8039CFB0ADCB}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{3BC6A7CB-5794-4664-AC29-8039CFB0ADCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nombre</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Especialidad</t>
+  </si>
+  <si>
+    <t>Sede</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,13 +106,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,9 +143,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +183,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +289,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E659A1D1-03D8-497A-B32E-A5FF971F4169}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +452,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,6 +467,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
